--- a/client_gamedata/ios/settings.xlsx
+++ b/client_gamedata/ios/settings.xlsx
@@ -396,7 +396,7 @@
         <v>CONFIG_MEMO</v>
       </c>
       <c r="B2" t="str">
-        <v>prod-3_1_0 (client-3.1.0; server-3.1.0)</v>
+        <v>prod-3_2_0 (client-3.2.0; server-3.2.0)</v>
       </c>
     </row>
     <row r="3">
@@ -444,7 +444,7 @@
         <v>SERVER_HOST</v>
       </c>
       <c r="B8" t="str">
-        <v>5eTEJfyniWsyIMd93+k61mUNr6rvOeiRLVN2BVGCvba9swh18EZiHnc4dssLfsNv</v>
+        <v>YPhA0K2krFsIq/+i53Ii2RVbOTD5gnz5pBzkZ2di110wXMeOrnsSTfvZE8nkBF5X</v>
       </c>
     </row>
     <row r="9">
@@ -452,7 +452,7 @@
         <v>IMPERIUM_GAMEDATA_TAG_UUID</v>
       </c>
       <c r="B9" t="str">
-        <v>7H3zvL5UIUUwALM9VG6NhhbohzC0za2QSj1gmjKz13f6eq95zBkz3+faU5spJrgW</v>
+        <v>ANP8fGGd0yN5W2NTGo9RnDySQpezxjkJ3Znhgj/YKZo1ZoEbVS0c3N6LtCLtfEWL</v>
       </c>
     </row>
     <row r="10">
@@ -460,7 +460,7 @@
         <v>IMPERIUM_LOCALIZATION_TAG_UUID</v>
       </c>
       <c r="B10" t="str">
-        <v>brgiQJRGLPeB4wlzTv8Z2h1wEA7eA6bvAJE/Q+ZuONGoWC8voUWGcZVpABz7Ydki</v>
+        <v>K3BPck4Oe/VsCztjUPYNbRNaYuQCnM1BoLkFPy2tbgdAeOOKF685jZWDJ3sBFV0L</v>
       </c>
     </row>
     <row r="11">
@@ -468,7 +468,7 @@
         <v>IMPERIUM_DOWNLOAD_DATA_ANDROID_TAG_UUID</v>
       </c>
       <c r="B11" t="str">
-        <v>nClWX7VNvbk6D0wR9B1xWfbXG8FkOOXqDDf+InVTbrbWNxLCbqreDMIuWuDLj7TW</v>
+        <v>TXyZkaCfD0oitWMmR0BI6ZydyO3E5/4HXbpDlKt6n7nF4tvL0+QMJE6jON5SzmyU</v>
       </c>
     </row>
     <row r="12">
@@ -476,7 +476,7 @@
         <v>IMPERIUM_DOWNLOAD_DATA_IOS_TAG_UUID</v>
       </c>
       <c r="B12" t="str">
-        <v>N5sV0fLrdb0sFTh5Sg6sZi9VQ5co1HDnsvt6MsdODMdIhMnGRU9MR9DsUwzv78Na</v>
+        <v>G3X0+rAUe/TC8oLr2YL0rzzvGRxpS9z2/s/lTiCr4thK2HPs/vPSAfpzDqAOTc4y</v>
       </c>
     </row>
     <row r="13">
@@ -572,7 +572,7 @@
         <v>IMPERIUM_ANDROID_EXP_TAG_UUID</v>
       </c>
       <c r="B24" t="str">
-        <v>hgE39XbxBg6jApFIhc9Af8kseaUzEgepKzQlpghXGheFieQXhTT5c0dDErZ1uBlo</v>
+        <v>vw5BG69nsuz5ThcwBSNSWWErbcgZZ83xNf77Qnc0zOXJVxR6FUqcSPA1P1jSUAHm</v>
       </c>
     </row>
     <row r="25">
@@ -580,7 +580,7 @@
         <v>IMPERIUM_IOS_EXP_TAG_UUID</v>
       </c>
       <c r="B25" t="str">
-        <v>mZeEU8OlFECgBjaahet0YEqdfoKPMoNQY9VlCBucxAl5S2I2mU6Vn6j0Zs4S7cT6</v>
+        <v>Sma4/CnhWma8zvrK0DsMNuqYOisecied6yIR2RHu+H3J4OkgTbM96pAUcKJ2/WL2</v>
       </c>
     </row>
     <row r="26">
@@ -588,7 +588,7 @@
         <v>IMPERIUM_CHAR_ASSETS_TAG_UUID</v>
       </c>
       <c r="B26" t="str">
-        <v>9ZUvSPsLtw1iyjaeh4Ht69+4WwkTtuF9nvvH9LkyjF8a4Tl701c2Fa8fJyP6fvvr</v>
+        <v>GrauI6qSu/PsZ7kj2/XzrBCcVVbbiJg0xsmg3ArpcBRyvy4ECNw3bkj+olkaH0Ar</v>
       </c>
     </row>
   </sheetData>

--- a/client_gamedata/ios/settings.xlsx
+++ b/client_gamedata/ios/settings.xlsx
@@ -396,7 +396,7 @@
         <v>CONFIG_MEMO</v>
       </c>
       <c r="B2" t="str">
-        <v>prod-3_2_0 (client-3.2.0; server-3.2.0)</v>
+        <v>prod-3_3_0 (client-3.3.0; server-3.3.0)</v>
       </c>
     </row>
     <row r="3">
@@ -444,7 +444,7 @@
         <v>SERVER_HOST</v>
       </c>
       <c r="B8" t="str">
-        <v>YPhA0K2krFsIq/+i53Ii2RVbOTD5gnz5pBzkZ2di110wXMeOrnsSTfvZE8nkBF5X</v>
+        <v>oPgKW79Ylzu61JKvptgeV+vRU5CBTp5syb9PDvcII+tmiS3zFogiWyFuA1hhdAFX</v>
       </c>
     </row>
     <row r="9">
@@ -452,7 +452,7 @@
         <v>IMPERIUM_GAMEDATA_TAG_UUID</v>
       </c>
       <c r="B9" t="str">
-        <v>ANP8fGGd0yN5W2NTGo9RnDySQpezxjkJ3Znhgj/YKZo1ZoEbVS0c3N6LtCLtfEWL</v>
+        <v>nysd6MqrMdXrZxJqfb6kOCNsJFn/+XCob7sJ7xLIr1nyeSCxRolI6tRo/zFIyaBw</v>
       </c>
     </row>
     <row r="10">
@@ -460,7 +460,7 @@
         <v>IMPERIUM_LOCALIZATION_TAG_UUID</v>
       </c>
       <c r="B10" t="str">
-        <v>K3BPck4Oe/VsCztjUPYNbRNaYuQCnM1BoLkFPy2tbgdAeOOKF685jZWDJ3sBFV0L</v>
+        <v>SjOd+iD+HW6tASCzsPiytnQlrFXEzv1PAPsza5rB6gGQlhz0OWZSu78VNxdrZfip</v>
       </c>
     </row>
     <row r="11">
@@ -468,7 +468,7 @@
         <v>IMPERIUM_DOWNLOAD_DATA_ANDROID_TAG_UUID</v>
       </c>
       <c r="B11" t="str">
-        <v>TXyZkaCfD0oitWMmR0BI6ZydyO3E5/4HXbpDlKt6n7nF4tvL0+QMJE6jON5SzmyU</v>
+        <v>hl6Kna4pI6LOTtX3KS4s/D6mRsOORFu4RSkk7KaVYsAVpjiQWzZ7KAWC2FMjPTYH</v>
       </c>
     </row>
     <row r="12">
@@ -476,7 +476,7 @@
         <v>IMPERIUM_DOWNLOAD_DATA_IOS_TAG_UUID</v>
       </c>
       <c r="B12" t="str">
-        <v>G3X0+rAUe/TC8oLr2YL0rzzvGRxpS9z2/s/lTiCr4thK2HPs/vPSAfpzDqAOTc4y</v>
+        <v>V0gdJh2cJYk/ua8wTZSRNmo9VwmM3/N4qnxybQaih/Z3zY1ljTX1yWNsmZwQmdqw</v>
       </c>
     </row>
     <row r="13">
@@ -572,7 +572,7 @@
         <v>IMPERIUM_ANDROID_EXP_TAG_UUID</v>
       </c>
       <c r="B24" t="str">
-        <v>vw5BG69nsuz5ThcwBSNSWWErbcgZZ83xNf77Qnc0zOXJVxR6FUqcSPA1P1jSUAHm</v>
+        <v>dU1W3Inr/BbEUE486YNKke4HgCjQ86mYItS6pR08K+qd/JgHyKgJJ8Zfj0osQ6EJ</v>
       </c>
     </row>
     <row r="25">
@@ -580,7 +580,7 @@
         <v>IMPERIUM_IOS_EXP_TAG_UUID</v>
       </c>
       <c r="B25" t="str">
-        <v>Sma4/CnhWma8zvrK0DsMNuqYOisecied6yIR2RHu+H3J4OkgTbM96pAUcKJ2/WL2</v>
+        <v>kxOAf+zNeOguoNjNDOFgnfF916DFvvb7DpRHLjBmDUMKbbfJ8fwjp67d509fVYhL</v>
       </c>
     </row>
     <row r="26">
@@ -588,7 +588,7 @@
         <v>IMPERIUM_CHAR_ASSETS_TAG_UUID</v>
       </c>
       <c r="B26" t="str">
-        <v>GrauI6qSu/PsZ7kj2/XzrBCcVVbbiJg0xsmg3ArpcBRyvy4ECNw3bkj+olkaH0Ar</v>
+        <v>7JWyY2LkrabRQaQlPxMCi85oTanw5zCZvwJ4v4BcqC90EOYnE31eWmO1VEatR3fX</v>
       </c>
     </row>
   </sheetData>

--- a/client_gamedata/ios/settings.xlsx
+++ b/client_gamedata/ios/settings.xlsx
@@ -396,7 +396,7 @@
         <v>CONFIG_MEMO</v>
       </c>
       <c r="B2" t="str">
-        <v>prod-3_3_0 (client-3.3.0; server-3.3.0)</v>
+        <v>prod-3_4_0 (client-3.4.0; server-3.4.0)</v>
       </c>
     </row>
     <row r="3">
@@ -444,7 +444,7 @@
         <v>SERVER_HOST</v>
       </c>
       <c r="B8" t="str">
-        <v>oPgKW79Ylzu61JKvptgeV+vRU5CBTp5syb9PDvcII+tmiS3zFogiWyFuA1hhdAFX</v>
+        <v>X6Q6YoPKF/8IN+YuaJgx3p5bLI5vztf8FjyW0NM7pxISf8QW6omi90pXpTwlUpPD</v>
       </c>
     </row>
     <row r="9">
@@ -452,7 +452,7 @@
         <v>IMPERIUM_GAMEDATA_TAG_UUID</v>
       </c>
       <c r="B9" t="str">
-        <v>nysd6MqrMdXrZxJqfb6kOCNsJFn/+XCob7sJ7xLIr1nyeSCxRolI6tRo/zFIyaBw</v>
+        <v>eUAC9Vq+bEF4PMHBJBdq4FhpmXRu0auQ1+8lywM7CsoZ3fKFk3Mr8ZNjPUnuGqq0</v>
       </c>
     </row>
     <row r="10">
@@ -460,7 +460,7 @@
         <v>IMPERIUM_LOCALIZATION_TAG_UUID</v>
       </c>
       <c r="B10" t="str">
-        <v>SjOd+iD+HW6tASCzsPiytnQlrFXEzv1PAPsza5rB6gGQlhz0OWZSu78VNxdrZfip</v>
+        <v>ZqMDys+c9oU13XFz+275nbypeuBR3DRLrwHQb6jyLTH53a9j/U14HOD4PJcG3sIB</v>
       </c>
     </row>
     <row r="11">
@@ -468,7 +468,7 @@
         <v>IMPERIUM_DOWNLOAD_DATA_ANDROID_TAG_UUID</v>
       </c>
       <c r="B11" t="str">
-        <v>hl6Kna4pI6LOTtX3KS4s/D6mRsOORFu4RSkk7KaVYsAVpjiQWzZ7KAWC2FMjPTYH</v>
+        <v>Ew2kIcMBiJXhvQpeXlfAKYGS1RGqYIDQtFMvU5wFoegWK9qJ0x6it9xJ9avWwX7z</v>
       </c>
     </row>
     <row r="12">
@@ -476,7 +476,7 @@
         <v>IMPERIUM_DOWNLOAD_DATA_IOS_TAG_UUID</v>
       </c>
       <c r="B12" t="str">
-        <v>V0gdJh2cJYk/ua8wTZSRNmo9VwmM3/N4qnxybQaih/Z3zY1ljTX1yWNsmZwQmdqw</v>
+        <v>neOV4Nx3zu0H1dhce9Skhagme2g0jchRJA/wKW97W75/lX7Y1wBcQS7Ci3QIVKvv</v>
       </c>
     </row>
     <row r="13">
@@ -572,7 +572,7 @@
         <v>IMPERIUM_ANDROID_EXP_TAG_UUID</v>
       </c>
       <c r="B24" t="str">
-        <v>dU1W3Inr/BbEUE486YNKke4HgCjQ86mYItS6pR08K+qd/JgHyKgJJ8Zfj0osQ6EJ</v>
+        <v>MWiWqfm5tLEM0rvB8klVadhuyyaM288fMHfpuD1gEpw9CZi5YHfSeEUHrQtTrM94</v>
       </c>
     </row>
     <row r="25">
@@ -580,7 +580,7 @@
         <v>IMPERIUM_IOS_EXP_TAG_UUID</v>
       </c>
       <c r="B25" t="str">
-        <v>kxOAf+zNeOguoNjNDOFgnfF916DFvvb7DpRHLjBmDUMKbbfJ8fwjp67d509fVYhL</v>
+        <v>Czd9lsXGKOvQFN8KjrTmjndSDLRR4+wBUQ8u8C6Gak1R0VFRuKYYQ66kUx/GzwXy</v>
       </c>
     </row>
     <row r="26">
@@ -588,7 +588,7 @@
         <v>IMPERIUM_CHAR_ASSETS_TAG_UUID</v>
       </c>
       <c r="B26" t="str">
-        <v>7JWyY2LkrabRQaQlPxMCi85oTanw5zCZvwJ4v4BcqC90EOYnE31eWmO1VEatR3fX</v>
+        <v>1LgTQkkfkBwwSb5XKgxVTroeBOO6NvfW53YC0YbGKTIx3aU7NA9GPf7hVj1Ca0o3</v>
       </c>
     </row>
   </sheetData>

--- a/client_gamedata/ios/settings.xlsx
+++ b/client_gamedata/ios/settings.xlsx
@@ -396,7 +396,7 @@
         <v>CONFIG_MEMO</v>
       </c>
       <c r="B2" t="str">
-        <v>prod-3_4_0 (client-3.4.0; server-3.4.0)</v>
+        <v>prod-2_2_0 for upgrade 2018-05-10 18:58:34</v>
       </c>
     </row>
     <row r="3">
@@ -412,7 +412,7 @@
         <v>PHOEBE_HOST</v>
       </c>
       <c r="B4" t="str">
-        <v>ouXWGuKbKN/7pcj5k1ruAOKTpssuv5FXlYRE0B6lgCajbolka9LHxaw1o9X2HLRa</v>
+        <v>ouXWGuKbKN/7pcj5k1ruAOKTpssuv5FXlYRE0B6lgCaRkSDAL333E23oepS5LBL2</v>
       </c>
     </row>
     <row r="5">
@@ -444,7 +444,7 @@
         <v>SERVER_HOST</v>
       </c>
       <c r="B8" t="str">
-        <v>X6Q6YoPKF/8IN+YuaJgx3p5bLI5vztf8FjyW0NM7pxISf8QW6omi90pXpTwlUpPD</v>
+        <v>+FNX50uuddmAq0pNqE3+XPMJMXI+0NlI/Yn3KKsKJS77GKEQtMYZgrJIhcBkwvtC</v>
       </c>
     </row>
     <row r="9">
@@ -452,7 +452,7 @@
         <v>IMPERIUM_GAMEDATA_TAG_UUID</v>
       </c>
       <c r="B9" t="str">
-        <v>eUAC9Vq+bEF4PMHBJBdq4FhpmXRu0auQ1+8lywM7CsoZ3fKFk3Mr8ZNjPUnuGqq0</v>
+        <v>o79javV2A7hP2V7hn+4wqtCDXotzcCW+U85PfogVCPuua0eb5wQSn8UQbTvcmSqN</v>
       </c>
     </row>
     <row r="10">
@@ -460,7 +460,7 @@
         <v>IMPERIUM_LOCALIZATION_TAG_UUID</v>
       </c>
       <c r="B10" t="str">
-        <v>ZqMDys+c9oU13XFz+275nbypeuBR3DRLrwHQb6jyLTH53a9j/U14HOD4PJcG3sIB</v>
+        <v>nwPMhCNlndOrOkUnWRHv45zI3lAhHwiG4jhOOD5TiAI8fprBivcnVoolci2hOMZV</v>
       </c>
     </row>
     <row r="11">
@@ -468,7 +468,7 @@
         <v>IMPERIUM_DOWNLOAD_DATA_ANDROID_TAG_UUID</v>
       </c>
       <c r="B11" t="str">
-        <v>Ew2kIcMBiJXhvQpeXlfAKYGS1RGqYIDQtFMvU5wFoegWK9qJ0x6it9xJ9avWwX7z</v>
+        <v>r3cVuyehetDkubAfMQSBfyEzgk5Ho9ekfbV/ayPjXrCYEl3Ox0yn7qjQ+l0Xkkx9</v>
       </c>
     </row>
     <row r="12">
@@ -476,7 +476,7 @@
         <v>IMPERIUM_DOWNLOAD_DATA_IOS_TAG_UUID</v>
       </c>
       <c r="B12" t="str">
-        <v>neOV4Nx3zu0H1dhce9Skhagme2g0jchRJA/wKW97W75/lX7Y1wBcQS7Ci3QIVKvv</v>
+        <v>Hw1KSY2SIdwMW1J8Zx2x7pkKTrwoAiIenG4rJAthyH7AMiq+P7I2gXOirAKvCOg6</v>
       </c>
     </row>
     <row r="13">
@@ -572,7 +572,7 @@
         <v>IMPERIUM_ANDROID_EXP_TAG_UUID</v>
       </c>
       <c r="B24" t="str">
-        <v>MWiWqfm5tLEM0rvB8klVadhuyyaM288fMHfpuD1gEpw9CZi5YHfSeEUHrQtTrM94</v>
+        <v>ud16a7FnJBRzP7TUT89RJmkRXUz73JEm8cBhnuh4qM6ZDz0E3vf7SWNsOIBEn+BN</v>
       </c>
     </row>
     <row r="25">
@@ -580,7 +580,7 @@
         <v>IMPERIUM_IOS_EXP_TAG_UUID</v>
       </c>
       <c r="B25" t="str">
-        <v>Czd9lsXGKOvQFN8KjrTmjndSDLRR4+wBUQ8u8C6Gak1R0VFRuKYYQ66kUx/GzwXy</v>
+        <v>w/oV2S2V5Ll+dyl3T/W8z1nhb2G3ONw0ChH8evO5LnEY9fcyDtwErw4AMCOooWJJ</v>
       </c>
     </row>
     <row r="26">
@@ -588,7 +588,7 @@
         <v>IMPERIUM_CHAR_ASSETS_TAG_UUID</v>
       </c>
       <c r="B26" t="str">
-        <v>1LgTQkkfkBwwSb5XKgxVTroeBOO6NvfW53YC0YbGKTIx3aU7NA9GPf7hVj1Ca0o3</v>
+        <v>dDkk4qGX1t6DFn3h0NKRvZ0H3RXEqgH4/qQ9QyJYqLfq+3EeO8MWVB1So/GiH0ic</v>
       </c>
     </row>
   </sheetData>

--- a/client_gamedata/ios/settings.xlsx
+++ b/client_gamedata/ios/settings.xlsx
@@ -396,7 +396,7 @@
         <v>CONFIG_MEMO</v>
       </c>
       <c r="B2" t="str">
-        <v>prod-2_2_0 for upgrade 2018-05-10 18:58:34</v>
+        <v>prod-3_5_0</v>
       </c>
     </row>
     <row r="3">
@@ -412,7 +412,7 @@
         <v>PHOEBE_HOST</v>
       </c>
       <c r="B4" t="str">
-        <v>ouXWGuKbKN/7pcj5k1ruAOKTpssuv5FXlYRE0B6lgCaRkSDAL333E23oepS5LBL2</v>
+        <v>ouXWGuKbKN/7pcj5k1ruAOKTpssuv5FXlYRE0B6lgCajbolka9LHxaw1o9X2HLRa</v>
       </c>
     </row>
     <row r="5">
@@ -444,7 +444,7 @@
         <v>SERVER_HOST</v>
       </c>
       <c r="B8" t="str">
-        <v>+FNX50uuddmAq0pNqE3+XPMJMXI+0NlI/Yn3KKsKJS77GKEQtMYZgrJIhcBkwvtC</v>
+        <v>1qvmjB2Cs2J5rpHy204Z38SX6h6E5M9vpQA0b84ConebyahpDIyAoIife+FDKsIj</v>
       </c>
     </row>
     <row r="9">
@@ -452,7 +452,7 @@
         <v>IMPERIUM_GAMEDATA_TAG_UUID</v>
       </c>
       <c r="B9" t="str">
-        <v>o79javV2A7hP2V7hn+4wqtCDXotzcCW+U85PfogVCPuua0eb5wQSn8UQbTvcmSqN</v>
+        <v>EbRtjxPtrTIgZvNAvHpzj5XcGVWuQlKRJIu7nN/NOpeXEOBYU0abK2sMYY8xd6NJ</v>
       </c>
     </row>
     <row r="10">
@@ -460,7 +460,7 @@
         <v>IMPERIUM_LOCALIZATION_TAG_UUID</v>
       </c>
       <c r="B10" t="str">
-        <v>nwPMhCNlndOrOkUnWRHv45zI3lAhHwiG4jhOOD5TiAI8fprBivcnVoolci2hOMZV</v>
+        <v>IhWl2Hv0fT8ImVdfsbEhb3UsPh7V9Bg1ngufpn9Vw++kjjlbxkFHleEuEGsvX//x</v>
       </c>
     </row>
     <row r="11">
@@ -468,7 +468,7 @@
         <v>IMPERIUM_DOWNLOAD_DATA_ANDROID_TAG_UUID</v>
       </c>
       <c r="B11" t="str">
-        <v>r3cVuyehetDkubAfMQSBfyEzgk5Ho9ekfbV/ayPjXrCYEl3Ox0yn7qjQ+l0Xkkx9</v>
+        <v>MTStUKhdJwc8O3OgPC4QWTcqdMeggBouh0oyPdG4jd/nlRhhxY6F0bwN4PcAa4Fp</v>
       </c>
     </row>
     <row r="12">
@@ -476,7 +476,7 @@
         <v>IMPERIUM_DOWNLOAD_DATA_IOS_TAG_UUID</v>
       </c>
       <c r="B12" t="str">
-        <v>Hw1KSY2SIdwMW1J8Zx2x7pkKTrwoAiIenG4rJAthyH7AMiq+P7I2gXOirAKvCOg6</v>
+        <v>uHmmiG89+PN+SbzA+Nxtlj63TMYfee2md83SvmNAwx6L+/27u1e4HyGqVO9/M7Pp</v>
       </c>
     </row>
     <row r="13">
@@ -572,7 +572,7 @@
         <v>IMPERIUM_ANDROID_EXP_TAG_UUID</v>
       </c>
       <c r="B24" t="str">
-        <v>ud16a7FnJBRzP7TUT89RJmkRXUz73JEm8cBhnuh4qM6ZDz0E3vf7SWNsOIBEn+BN</v>
+        <v>AX/3//4nTN7iIOT6FNJSUYWp4Q5SvLYiskLZ5r4X41qUBlFIBELyiI+VfTw1LGGq</v>
       </c>
     </row>
     <row r="25">
@@ -580,7 +580,7 @@
         <v>IMPERIUM_IOS_EXP_TAG_UUID</v>
       </c>
       <c r="B25" t="str">
-        <v>w/oV2S2V5Ll+dyl3T/W8z1nhb2G3ONw0ChH8evO5LnEY9fcyDtwErw4AMCOooWJJ</v>
+        <v>VmMFRpyvXClRJW31CT8TBzOKrzkZxmtVKY/sDG7lrNgD58I44dd1vEXrX4Vp8e3v</v>
       </c>
     </row>
     <row r="26">
@@ -588,7 +588,7 @@
         <v>IMPERIUM_CHAR_ASSETS_TAG_UUID</v>
       </c>
       <c r="B26" t="str">
-        <v>dDkk4qGX1t6DFn3h0NKRvZ0H3RXEqgH4/qQ9QyJYqLfq+3EeO8MWVB1So/GiH0ic</v>
+        <v>Zm8HeAND33rtn6zuNRQuIhYQZYtvAVn6hgsb/Lv47qRR6x/0JfyBvw6OJHWt0ykL</v>
       </c>
     </row>
   </sheetData>

--- a/client_gamedata/ios/settings.xlsx
+++ b/client_gamedata/ios/settings.xlsx
@@ -6,7 +6,7 @@
     <sheet name="Config" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0">'Config'!A1:B26</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0">'Config'!A1:B27</definedName>
   </definedNames>
 </workbook>
 </file>
@@ -378,7 +378,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -396,7 +396,7 @@
         <v>CONFIG_MEMO</v>
       </c>
       <c r="B2" t="str">
-        <v>prod-3_5_0</v>
+        <v>prod-2_2_0 for maintain 2018-05-10 18:47:03</v>
       </c>
     </row>
     <row r="3">
@@ -412,7 +412,7 @@
         <v>PHOEBE_HOST</v>
       </c>
       <c r="B4" t="str">
-        <v>ouXWGuKbKN/7pcj5k1ruAOKTpssuv5FXlYRE0B6lgCajbolka9LHxaw1o9X2HLRa</v>
+        <v>ouXWGuKbKN/7pcj5k1ruAOKTpssuv5FXlYRE0B6lgCaRkSDAL333E23oepS5LBL2</v>
       </c>
     </row>
     <row r="5">
@@ -444,7 +444,7 @@
         <v>SERVER_HOST</v>
       </c>
       <c r="B8" t="str">
-        <v>1qvmjB2Cs2J5rpHy204Z38SX6h6E5M9vpQA0b84ConebyahpDIyAoIife+FDKsIj</v>
+        <v>+FNX50uuddmAq0pNqE3+XDCsuu5YurdDmxoIVG7a3ny9mPOJ0/YQ8+RDD+wCZd7km+bZ1NIcShUocmkYWnXT+w==</v>
       </c>
     </row>
     <row r="9">
@@ -452,7 +452,7 @@
         <v>IMPERIUM_GAMEDATA_TAG_UUID</v>
       </c>
       <c r="B9" t="str">
-        <v>EbRtjxPtrTIgZvNAvHpzj5XcGVWuQlKRJIu7nN/NOpeXEOBYU0abK2sMYY8xd6NJ</v>
+        <v>o79javV2A7hP2V7hn+4wqtCDXotzcCW+U85PfogVCPuua0eb5wQSn8UQbTvcmSqN</v>
       </c>
     </row>
     <row r="10">
@@ -460,7 +460,7 @@
         <v>IMPERIUM_LOCALIZATION_TAG_UUID</v>
       </c>
       <c r="B10" t="str">
-        <v>IhWl2Hv0fT8ImVdfsbEhb3UsPh7V9Bg1ngufpn9Vw++kjjlbxkFHleEuEGsvX//x</v>
+        <v>nwPMhCNlndOrOkUnWRHv45zI3lAhHwiG4jhOOD5TiAI8fprBivcnVoolci2hOMZV</v>
       </c>
     </row>
     <row r="11">
@@ -468,7 +468,7 @@
         <v>IMPERIUM_DOWNLOAD_DATA_ANDROID_TAG_UUID</v>
       </c>
       <c r="B11" t="str">
-        <v>MTStUKhdJwc8O3OgPC4QWTcqdMeggBouh0oyPdG4jd/nlRhhxY6F0bwN4PcAa4Fp</v>
+        <v>r3cVuyehetDkubAfMQSBfyEzgk5Ho9ekfbV/ayPjXrCYEl3Ox0yn7qjQ+l0Xkkx9</v>
       </c>
     </row>
     <row r="12">
@@ -476,7 +476,7 @@
         <v>IMPERIUM_DOWNLOAD_DATA_IOS_TAG_UUID</v>
       </c>
       <c r="B12" t="str">
-        <v>uHmmiG89+PN+SbzA+Nxtlj63TMYfee2md83SvmNAwx6L+/27u1e4HyGqVO9/M7Pp</v>
+        <v>Hw1KSY2SIdwMW1J8Zx2x7pkKTrwoAiIenG4rJAthyH7AMiq+P7I2gXOirAKvCOg6</v>
       </c>
     </row>
     <row r="13">
@@ -572,7 +572,7 @@
         <v>IMPERIUM_ANDROID_EXP_TAG_UUID</v>
       </c>
       <c r="B24" t="str">
-        <v>AX/3//4nTN7iIOT6FNJSUYWp4Q5SvLYiskLZ5r4X41qUBlFIBELyiI+VfTw1LGGq</v>
+        <v>ud16a7FnJBRzP7TUT89RJmkRXUz73JEm8cBhnuh4qM6ZDz0E3vf7SWNsOIBEn+BN</v>
       </c>
     </row>
     <row r="25">
@@ -580,7 +580,7 @@
         <v>IMPERIUM_IOS_EXP_TAG_UUID</v>
       </c>
       <c r="B25" t="str">
-        <v>VmMFRpyvXClRJW31CT8TBzOKrzkZxmtVKY/sDG7lrNgD58I44dd1vEXrX4Vp8e3v</v>
+        <v>w/oV2S2V5Ll+dyl3T/W8z1nhb2G3ONw0ChH8evO5LnEY9fcyDtwErw4AMCOooWJJ</v>
       </c>
     </row>
     <row r="26">
@@ -588,13 +588,21 @@
         <v>IMPERIUM_CHAR_ASSETS_TAG_UUID</v>
       </c>
       <c r="B26" t="str">
-        <v>Zm8HeAND33rtn6zuNRQuIhYQZYtvAVn6hgsb/Lv47qRR6x/0JfyBvw6OJHWt0ykL</v>
+        <v>dDkk4qGX1t6DFn3h0NKRvZ0H3RXEqgH4/qQ9QyJYqLfq+3EeO8MWVB1So/GiH0ic</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>IMPERIUM_DIALOG_TAG_UUID</v>
+      </c>
+      <c r="B27" t="str">
+        <v>IXlBWINBUKNG3Z68QILA1EPixVw28giivd2uM+mEmH13nrY54iBV0LjcKg4K0f6j</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B26"/>
+  <autoFilter ref="A1:B27"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B26"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B27"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/client_gamedata/ios/settings.xlsx
+++ b/client_gamedata/ios/settings.xlsx
@@ -396,7 +396,7 @@
         <v>CONFIG_MEMO</v>
       </c>
       <c r="B2" t="str">
-        <v>prod-2_2_0 for maintain 2018-05-10 18:47:03</v>
+        <v>prod-2_2_0 for upgrade 2018-05-10 18:58:34</v>
       </c>
     </row>
     <row r="3">
@@ -444,7 +444,7 @@
         <v>SERVER_HOST</v>
       </c>
       <c r="B8" t="str">
-        <v>+FNX50uuddmAq0pNqE3+XDCsuu5YurdDmxoIVG7a3ny9mPOJ0/YQ8+RDD+wCZd7km+bZ1NIcShUocmkYWnXT+w==</v>
+        <v>+FNX50uuddmAq0pNqE3+XPMJMXI+0NlI/Yn3KKsKJS77GKEQtMYZgrJIhcBkwvtC</v>
       </c>
     </row>
     <row r="9">

--- a/client_gamedata/ios/settings.xlsx
+++ b/client_gamedata/ios/settings.xlsx
@@ -6,9 +6,31 @@
     <sheet name="Config" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0">'Config'!A1:B27</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0">Config!$A$1:$B$27</definedName>
   </definedNames>
 </workbook>
+</file>
+
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -396,7 +418,7 @@
         <v>CONFIG_MEMO</v>
       </c>
       <c r="B2" t="str">
-        <v>prod-2_2_0 for upgrade 2018-05-10 18:58:34</v>
+        <v>prod-4_6_0 (client-4.6.0; server-4.6.0)</v>
       </c>
     </row>
     <row r="3">
@@ -412,7 +434,7 @@
         <v>PHOEBE_HOST</v>
       </c>
       <c r="B4" t="str">
-        <v>ouXWGuKbKN/7pcj5k1ruAOKTpssuv5FXlYRE0B6lgCaRkSDAL333E23oepS5LBL2</v>
+        <v>ouXWGuKbKN/7pcj5k1ruAOKTpssuv5FXlYRE0B6lgCajbolka9LHxaw1o9X2HLRa</v>
       </c>
     </row>
     <row r="5">
@@ -444,7 +466,7 @@
         <v>SERVER_HOST</v>
       </c>
       <c r="B8" t="str">
-        <v>+FNX50uuddmAq0pNqE3+XPMJMXI+0NlI/Yn3KKsKJS77GKEQtMYZgrJIhcBkwvtC</v>
+        <v>I0sp8vUoZwsjtdWa+jGlxQU904Z6q+dP3+6hyDUG6Xd9LLuRvIUrppBbv7/ZlXjj</v>
       </c>
     </row>
     <row r="9">
@@ -452,7 +474,7 @@
         <v>IMPERIUM_GAMEDATA_TAG_UUID</v>
       </c>
       <c r="B9" t="str">
-        <v>o79javV2A7hP2V7hn+4wqtCDXotzcCW+U85PfogVCPuua0eb5wQSn8UQbTvcmSqN</v>
+        <v>FvVkWPHtAmgv79F/A/zH6AU9RZDyzr2gXy50jmPX2I/p1ySAqLuqb95sUZuoNfrQ</v>
       </c>
     </row>
     <row r="10">
@@ -460,7 +482,7 @@
         <v>IMPERIUM_LOCALIZATION_TAG_UUID</v>
       </c>
       <c r="B10" t="str">
-        <v>nwPMhCNlndOrOkUnWRHv45zI3lAhHwiG4jhOOD5TiAI8fprBivcnVoolci2hOMZV</v>
+        <v>BZzd6y3ZeWhfYkq82JzW4uQ7qV5nvshdkrir3vm/IcBQzwZLAoCylfBoTZvMMXc6</v>
       </c>
     </row>
     <row r="11">
@@ -468,7 +490,7 @@
         <v>IMPERIUM_DOWNLOAD_DATA_ANDROID_TAG_UUID</v>
       </c>
       <c r="B11" t="str">
-        <v>r3cVuyehetDkubAfMQSBfyEzgk5Ho9ekfbV/ayPjXrCYEl3Ox0yn7qjQ+l0Xkkx9</v>
+        <v>ESahAX+FGZYZOOboRrs06nbNWhDe2WulS4tIAmx19bgW2O/rHhQvJQuCO/i9uBxd</v>
       </c>
     </row>
     <row r="12">
@@ -476,7 +498,7 @@
         <v>IMPERIUM_DOWNLOAD_DATA_IOS_TAG_UUID</v>
       </c>
       <c r="B12" t="str">
-        <v>Hw1KSY2SIdwMW1J8Zx2x7pkKTrwoAiIenG4rJAthyH7AMiq+P7I2gXOirAKvCOg6</v>
+        <v>K5j7FZwG0qrrvbOZGZt6AFL3KYAi7dnXi3SiXm1dJ2ZggcECPiOmMSnMUql5ZLN+</v>
       </c>
     </row>
     <row r="13">
@@ -572,7 +594,7 @@
         <v>IMPERIUM_ANDROID_EXP_TAG_UUID</v>
       </c>
       <c r="B24" t="str">
-        <v>ud16a7FnJBRzP7TUT89RJmkRXUz73JEm8cBhnuh4qM6ZDz0E3vf7SWNsOIBEn+BN</v>
+        <v>mIWEycOp/pPDdH+hI4crCadpU5li0J0imV7ZRu3HJOuQnC+kgOvD3lRDistYL0eX</v>
       </c>
     </row>
     <row r="25">
@@ -580,7 +602,7 @@
         <v>IMPERIUM_IOS_EXP_TAG_UUID</v>
       </c>
       <c r="B25" t="str">
-        <v>w/oV2S2V5Ll+dyl3T/W8z1nhb2G3ONw0ChH8evO5LnEY9fcyDtwErw4AMCOooWJJ</v>
+        <v>ru1yiAkdrE6ZsueT4nbDgefmUg+xZpcRL/Pj98t+AsCycsdy5X65nBiHQr4NI4VP</v>
       </c>
     </row>
     <row r="26">
@@ -588,7 +610,7 @@
         <v>IMPERIUM_CHAR_ASSETS_TAG_UUID</v>
       </c>
       <c r="B26" t="str">
-        <v>dDkk4qGX1t6DFn3h0NKRvZ0H3RXEqgH4/qQ9QyJYqLfq+3EeO8MWVB1So/GiH0ic</v>
+        <v>GBI6/MhQeQTpwrgPnvdAQwFyREwvX0qYolTjj9GRYNzl9YRtitYuVx+/BiTpxbxJ</v>
       </c>
     </row>
     <row r="27">
@@ -596,7 +618,7 @@
         <v>IMPERIUM_DIALOG_TAG_UUID</v>
       </c>
       <c r="B27" t="str">
-        <v>IXlBWINBUKNG3Z68QILA1EPixVw28giivd2uM+mEmH13nrY54iBV0LjcKg4K0f6j</v>
+        <v>0MyL5r9GzxOxwGIlnwvEFn1IlpLrVcX6gxiTAz1O5tEaCLHQc9llDHwGP7in54HS</v>
       </c>
     </row>
   </sheetData>
